--- a/assets/template/2a.xlsx
+++ b/assets/template/2a.xlsx
@@ -1,41 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\borang\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-borang\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78268AAB-F69E-4B37-951C-1B71E07F5C63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
+    <workbookView xWindow="3405" yWindow="3795" windowWidth="19680" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2a" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="diploma">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="G11" authorId="0" shapeId="0">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -260,46 +263,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -317,113 +320,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Menu"/>
-      <sheetName val="Daftar Tabel"/>
-      <sheetName val="PS"/>
-      <sheetName val="1-1"/>
-      <sheetName val="1-2"/>
-      <sheetName val="1-3"/>
-      <sheetName val="2a"/>
-      <sheetName val="2b"/>
-      <sheetName val="3a1"/>
-      <sheetName val="3a2"/>
-      <sheetName val="3a3"/>
-      <sheetName val="3a4"/>
-      <sheetName val="3a5"/>
-      <sheetName val="3b1"/>
-      <sheetName val="3b2"/>
-      <sheetName val="3b3"/>
-      <sheetName val="3b4-1"/>
-      <sheetName val="3b4-2"/>
-      <sheetName val="3b5-1"/>
-      <sheetName val="3b5-2"/>
-      <sheetName val="3b5-3"/>
-      <sheetName val="3b5-4"/>
-      <sheetName val="3b6"/>
-      <sheetName val="3b7"/>
-      <sheetName val="4"/>
-      <sheetName val="5a"/>
-      <sheetName val="5b"/>
-      <sheetName val="5c"/>
-      <sheetName val="6a"/>
-      <sheetName val="6b"/>
-      <sheetName val="7"/>
-      <sheetName val="8a"/>
-      <sheetName val="8b1"/>
-      <sheetName val="8b2"/>
-      <sheetName val="8c"/>
-      <sheetName val="8d1"/>
-      <sheetName val="8d2"/>
-      <sheetName val="8e1"/>
-      <sheetName val="Ref 8e2"/>
-      <sheetName val="8e2"/>
-      <sheetName val="8f1-1"/>
-      <sheetName val="8f1-2"/>
-      <sheetName val="8f2"/>
-      <sheetName val="8f3"/>
-      <sheetName val="8f4-1"/>
-      <sheetName val="8f4-2"/>
-      <sheetName val="8f4-3"/>
-      <sheetName val="8f4-4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -722,7 +618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -744,159 +640,159 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="4">
         <v>3</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="4">
         <v>5</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="4">
         <v>6</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="5">
         <v>7</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="11"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="11"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="11"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="11"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="11"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15">
+      <c r="B11" s="15"/>
+      <c r="C11" s="9">
         <f t="shared" ref="C11:F11" si="0">SUM(C6:C10)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="14">
         <f>SUM(G10:H10)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
